--- a/Python_Mail/Tasks/Python3/Task 3 - Count Success and Failures and attach it to bottom/sheet.xlsx
+++ b/Python_Mail/Tasks/Python3/Task 3 - Count Success and Failures and attach it to bottom/sheet.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="A14:E18"/>
+      <selection activeCell="A14" sqref="A14:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Python_Mail/Tasks/Python3/Task 3 - Count Success and Failures and attach it to bottom/sheet.xlsx
+++ b/Python_Mail/Tasks/Python3/Task 3 - Count Success and Failures and attach it to bottom/sheet.xlsx
@@ -1,79 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
-  <si>
-    <t>VM Name</t>
-  </si>
-  <si>
-    <t>VM1</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>VM2</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>VM3</t>
-  </si>
-  <si>
-    <t>VM4</t>
-  </si>
-  <si>
-    <t>VM5</t>
-  </si>
-  <si>
-    <t>VM6</t>
-  </si>
-  <si>
-    <t>VM7</t>
-  </si>
-  <si>
-    <t>VM8</t>
-  </si>
-  <si>
-    <t>VM9</t>
-  </si>
-  <si>
-    <t>VM10</t>
-  </si>
-  <si>
-    <t>VM11</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,22 +43,84 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -394,181 +410,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="40.7109375"/>
+    <col customWidth="1" max="2" min="2" width="16.5703125"/>
+    <col customWidth="1" max="3" min="3" width="14.5703125"/>
+    <col customWidth="1" max="4" min="4" width="14.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>VM Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>44430</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>44431</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>44432</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>VM1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>VM2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>VM3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>VM4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>VM5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>VM6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>VM7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>VM8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VM9</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>VM10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>VM11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Total Count</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" t="n">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>